--- a/biology/Botanique/Un_matin_dans_une_forêt_de_pins/Un_matin_dans_une_forêt_de_pins.xlsx
+++ b/biology/Botanique/Un_matin_dans_une_forêt_de_pins/Un_matin_dans_une_forêt_de_pins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Un_matin_dans_une_for%C3%AAt_de_pins</t>
+          <t>Un_matin_dans_une_forêt_de_pins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un matin dans une forêt de pins (en russe : Утро в сосновом лесу) est un tableau peint par les peintres russes Ivan Chichkine et Constantin Savitski. C'est ce dernier qui a peint les ours[1], mais le collectionneur Pavel Tretiakov a effacé sa signature[2]. Le tableau est donc attribué uniquement à Chichkine.
-Un matin dans une forêt de pins est très populaire et a été reproduit sur de nombreux objets, dont les chocolats « l'Ours qui marche les pattes en dedans » de la Krasny Oktyabr Open Joint-Stock Company[3]. Selon un sondage, ce tableau serait le deuxième plus populaire en Russie, derrière Les Bogatyrs de Viktor Vasnetsov[4].
-On pense que Chichkine a peint cette image sous l'impression de la nature de l'île de Gorodomlia (ru), située sur le lac Seliger[5].
+Un matin dans une forêt de pins (en russe : Утро в сосновом лесу) est un tableau peint par les peintres russes Ivan Chichkine et Constantin Savitski. C'est ce dernier qui a peint les ours, mais le collectionneur Pavel Tretiakov a effacé sa signature. Le tableau est donc attribué uniquement à Chichkine.
+Un matin dans une forêt de pins est très populaire et a été reproduit sur de nombreux objets, dont les chocolats « l'Ours qui marche les pattes en dedans » de la Krasny Oktyabr Open Joint-Stock Company. Selon un sondage, ce tableau serait le deuxième plus populaire en Russie, derrière Les Bogatyrs de Viktor Vasnetsov.
+On pense que Chichkine a peint cette image sous l'impression de la nature de l'île de Gorodomlia (ru), située sur le lac Seliger.
 </t>
         </is>
       </c>
